--- a/sales_data.xlsx
+++ b/sales_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Ayaz\datasets\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94049AA3-BB9A-4B5A-BAF8-74B5A63E5333}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA9F52-FEB6-42A1-93DE-15598D657F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A333EFBE-6637-49B7-8521-695656020649}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A333EFBE-6637-49B7-8521-695656020649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -222,9 +227,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -293,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,19 +596,19 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -624,603 +628,603 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>15000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>80000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>25000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>35000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>20000</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>25000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.09</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>15000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>80000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>35000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>25000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>15000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>80000</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>25000</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>25000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>6</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>20000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>35000</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>25000</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0.09</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>25000</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>35000</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>15000</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>80000</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>25000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>35000</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>15000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>8</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>20000</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>25000</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>0.09</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>35000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>25000</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>8</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>35000</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>0.12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>9</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>20000</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>0.05</v>
       </c>
     </row>
